--- a/uploads/기사관리_2024.xlsx
+++ b/uploads/기사관리_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pdata\ojy-hmtaxi-erp\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9BA1A4-B7D6-4032-8ED6-A7B1C30F96EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA7500-2DFE-49E7-8C05-07CDD6C9FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="216" windowWidth="23256" windowHeight="12456" xr2:uid="{66348461-5697-4C24-A8D1-6ED51936E14B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66348461-5697-4C24-A8D1-6ED51936E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="profile" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>11-96-615988-42</t>
   </si>
   <si>
-    <t>010-4312-4034</t>
-  </si>
-  <si>
     <t>서울특별시 성동구 무학로 33 (하왕십리동, 텐즈힐1) 121동 1207호</t>
   </si>
   <si>
@@ -1821,6 +1818,10 @@
   </si>
   <si>
     <t>580503-1537915</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5312-4034</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2280,7 +2281,7 @@
   <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2304,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2325,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -2346,7 +2347,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -2361,13 +2362,13 @@
         <v>35886</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2375,17 +2376,17 @@
         <v>1563</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C66" ca="1" si="0">YEAR(TODAY())-(1900+LEFT(D3,2))</f>
         <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="6">
         <v>45292</v>
@@ -2397,13 +2398,13 @@
         <v>38124</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2411,17 +2412,17 @@
         <v>1867</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="6">
         <v>44562</v>
@@ -2433,13 +2434,13 @@
         <v>39001</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2447,17 +2448,17 @@
         <v>1897</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="6">
         <v>44562</v>
@@ -2469,13 +2470,13 @@
         <v>39083</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2483,17 +2484,17 @@
         <v>1918</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="6">
         <v>45292</v>
@@ -2505,13 +2506,13 @@
         <v>39167</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2519,17 +2520,17 @@
         <v>1979</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="6">
         <v>46023</v>
@@ -2541,13 +2542,13 @@
         <v>39420</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2555,17 +2556,17 @@
         <v>1981</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="6">
         <v>46023</v>
@@ -2577,13 +2578,13 @@
         <v>39426</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2591,17 +2592,17 @@
         <v>2386</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="6">
         <v>46023</v>
@@ -2613,13 +2614,13 @@
         <v>41068</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2627,17 +2628,17 @@
         <v>2415</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F10" s="6">
         <v>45658</v>
@@ -2649,13 +2650,13 @@
         <v>41191</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2663,17 +2664,17 @@
         <v>2518</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="F11" s="6">
         <v>44927</v>
@@ -2685,13 +2686,13 @@
         <v>41640</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2699,17 +2700,17 @@
         <v>2571</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="F12" s="6">
         <v>46753</v>
@@ -2721,13 +2722,13 @@
         <v>41821</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2735,17 +2736,17 @@
         <v>2581</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="F13" s="6">
         <v>45292</v>
@@ -2757,13 +2758,13 @@
         <v>41852</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2771,17 +2772,17 @@
         <v>2603</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -2789,13 +2790,13 @@
         <v>41944</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2803,17 +2804,17 @@
         <v>2604</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="F15" s="6">
         <v>45292</v>
@@ -2825,13 +2826,13 @@
         <v>41944</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2839,17 +2840,17 @@
         <v>2618</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="F16" s="6">
         <v>46023</v>
@@ -2861,13 +2862,13 @@
         <v>42037</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2875,17 +2876,17 @@
         <v>2632</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F17" s="6">
         <v>45292</v>
@@ -2897,13 +2898,13 @@
         <v>42119</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2911,17 +2912,17 @@
         <v>2643</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="F18" s="6">
         <v>45658</v>
@@ -2933,13 +2934,13 @@
         <v>42192</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2947,17 +2948,17 @@
         <v>2645</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F19" s="6">
         <v>45292</v>
@@ -2969,13 +2970,13 @@
         <v>42217</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2983,17 +2984,17 @@
         <v>2647</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="F20" s="6">
         <v>44927</v>
@@ -3005,13 +3006,13 @@
         <v>42217</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3019,17 +3020,17 @@
         <v>2693</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F21" s="6">
         <v>45658</v>
@@ -3041,13 +3042,13 @@
         <v>42522</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3055,17 +3056,17 @@
         <v>2702</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="F22" s="6">
         <v>44927</v>
@@ -3077,13 +3078,13 @@
         <v>42583</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3091,17 +3092,17 @@
         <v>2730</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="F23" s="6">
         <v>44562</v>
@@ -3113,13 +3114,13 @@
         <v>42767</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3127,17 +3128,17 @@
         <v>2737</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="F24" s="6">
         <v>46388</v>
@@ -3149,13 +3150,13 @@
         <v>42795</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3163,17 +3164,17 @@
         <v>2750</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>75</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F25" s="6">
         <v>44927</v>
@@ -3185,13 +3186,13 @@
         <v>42887</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3199,17 +3200,17 @@
         <v>2758</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F26" s="6">
         <v>45292</v>
@@ -3221,13 +3222,13 @@
         <v>42954</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3235,17 +3236,17 @@
         <v>2759</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F27" s="6">
         <v>44562</v>
@@ -3257,13 +3258,13 @@
         <v>42954</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3271,17 +3272,17 @@
         <v>2798</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="F28" s="6">
         <v>45658</v>
@@ -3293,13 +3294,13 @@
         <v>43291</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3307,17 +3308,17 @@
         <v>2806</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="F29" s="6">
         <v>46023</v>
@@ -3329,13 +3330,13 @@
         <v>43347</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3343,17 +3344,17 @@
         <v>2813</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F30" s="6">
         <v>45292</v>
@@ -3365,13 +3366,13 @@
         <v>43376</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3379,17 +3380,17 @@
         <v>2818</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="F31" s="6">
         <v>45658</v>
@@ -3401,13 +3402,13 @@
         <v>43466</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3415,17 +3416,17 @@
         <v>2823</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="F32" s="6">
         <v>43831</v>
@@ -3437,13 +3438,13 @@
         <v>43510</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3451,17 +3452,17 @@
         <v>2835</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="F33" s="6">
         <v>45292</v>
@@ -3473,13 +3474,13 @@
         <v>43678</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3487,17 +3488,17 @@
         <v>2838</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="F34" s="6">
         <v>44927</v>
@@ -3509,13 +3510,13 @@
         <v>43689</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3523,17 +3524,17 @@
         <v>2844</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F35" s="6">
         <v>44927</v>
@@ -3545,13 +3546,13 @@
         <v>43801</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3559,17 +3560,17 @@
         <v>2846</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -3577,13 +3578,13 @@
         <v>43834</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3591,17 +3592,17 @@
         <v>6003</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="F37" s="6">
         <v>46023</v>
@@ -3613,13 +3614,13 @@
         <v>43563</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3627,17 +3628,17 @@
         <v>6012</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="F38" s="6">
         <v>46023</v>
@@ -3649,13 +3650,13 @@
         <v>43577</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3663,14 +3664,14 @@
         <v>6020</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="10"/>
@@ -3679,13 +3680,13 @@
         <v>43592</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3693,17 +3694,17 @@
         <v>6023</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="F40" s="6">
         <v>46753</v>
@@ -3715,13 +3716,13 @@
         <v>43598</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3729,17 +3730,17 @@
         <v>6026</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="F41" s="6">
         <v>46753</v>
@@ -3751,13 +3752,13 @@
         <v>43598</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3765,17 +3766,17 @@
         <v>6042</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="F42" s="6">
         <v>45658</v>
@@ -3787,13 +3788,13 @@
         <v>43640</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3801,17 +3802,17 @@
         <v>6046</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="F43" s="6">
         <v>46023</v>
@@ -3823,13 +3824,13 @@
         <v>43650</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3837,17 +3838,17 @@
         <v>6047</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="F44" s="6">
         <v>45658</v>
@@ -3859,13 +3860,13 @@
         <v>43675</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3873,17 +3874,17 @@
         <v>6054</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="F45" s="6">
         <v>44562</v>
@@ -3895,13 +3896,13 @@
         <v>43689</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3909,17 +3910,17 @@
         <v>6060</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>68</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="F46" s="6">
         <v>46753</v>
@@ -3931,13 +3932,13 @@
         <v>43709</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K46" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3945,17 +3946,17 @@
         <v>6071</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="F47" s="6">
         <v>46023</v>
@@ -3967,13 +3968,13 @@
         <v>43760</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K47" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3981,17 +3982,17 @@
         <v>6072</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>68</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="F48" s="6">
         <v>45658</v>
@@ -4003,13 +4004,13 @@
         <v>43770</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K48" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4017,17 +4018,17 @@
         <v>6074</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>68</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="F49" s="6">
         <v>46023</v>
@@ -4039,13 +4040,13 @@
         <v>43800</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4053,17 +4054,17 @@
         <v>6075</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="F50" s="6">
         <v>45658</v>
@@ -4075,13 +4076,13 @@
         <v>43801</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4089,17 +4090,17 @@
         <v>6078</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>70</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="F51" s="6">
         <v>46753</v>
@@ -4111,13 +4112,13 @@
         <v>43801</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4125,17 +4126,17 @@
         <v>6079</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="F52" s="6">
         <v>45292</v>
@@ -4147,13 +4148,13 @@
         <v>43892</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K52" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4161,17 +4162,17 @@
         <v>6080</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="F53" s="6">
         <v>46388</v>
@@ -4183,13 +4184,13 @@
         <v>43902</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K53" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4197,17 +4198,17 @@
         <v>6081</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="F54" s="6">
         <v>46753</v>
@@ -4219,13 +4220,13 @@
         <v>43902</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4233,17 +4234,17 @@
         <v>6086</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="F55" s="6">
         <v>46753</v>
@@ -4255,13 +4256,13 @@
         <v>43928</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K55" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4269,35 +4270,35 @@
         <v>6093</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="F56" s="6">
         <v>46753</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H56" s="6">
         <v>43955</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K56" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4305,17 +4306,17 @@
         <v>6097</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="F57" s="6">
         <v>46023</v>
@@ -4327,13 +4328,13 @@
         <v>43969</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K57" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4341,17 +4342,17 @@
         <v>6099</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="F58" s="6">
         <v>45292</v>
@@ -4363,13 +4364,13 @@
         <v>43969</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K58" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4377,17 +4378,17 @@
         <v>6103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="F59" s="6">
         <v>46388</v>
@@ -4399,13 +4400,13 @@
         <v>43997</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J59" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4413,17 +4414,17 @@
         <v>6106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -4431,13 +4432,13 @@
         <v>44004</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K60" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4445,17 +4446,17 @@
         <v>6107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="F61" s="6">
         <v>46023</v>
@@ -4467,13 +4468,13 @@
         <v>44011</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K61" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4481,14 +4482,14 @@
         <v>6108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="10"/>
@@ -4497,13 +4498,13 @@
         <v>44011</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K62" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4511,14 +4512,14 @@
         <v>6110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="10"/>
@@ -4527,13 +4528,13 @@
         <v>44018</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K63" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4541,17 +4542,17 @@
         <v>6111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>67</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F64" s="6">
         <v>45292</v>
@@ -4563,13 +4564,13 @@
         <v>44034</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K64" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4577,17 +4578,17 @@
         <v>6112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>67</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="F65" s="6">
         <v>45292</v>
@@ -4599,13 +4600,13 @@
         <v>44039</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K65" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4613,14 +4614,14 @@
         <v>6116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="10"/>
@@ -4629,13 +4630,13 @@
         <v>44055</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K66" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4643,17 +4644,17 @@
         <v>6117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" ref="C67:C127" ca="1" si="1">YEAR(TODAY())-(1900+LEFT(D67,2))</f>
         <v>65</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="F67" s="6">
         <v>44562</v>
@@ -4665,13 +4666,13 @@
         <v>44075</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J67" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K67" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4679,17 +4680,17 @@
         <v>6118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="F68" s="6">
         <v>46753</v>
@@ -4701,13 +4702,13 @@
         <v>44075</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4715,17 +4716,17 @@
         <v>6119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>50</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="F69" s="6">
         <v>46388</v>
@@ -4737,13 +4738,13 @@
         <v>44082</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K69" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4751,17 +4752,17 @@
         <v>6120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="F70" s="6">
         <v>44562</v>
@@ -4773,13 +4774,13 @@
         <v>44097</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4787,17 +4788,17 @@
         <v>6125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="F71" s="6">
         <v>47119</v>
@@ -4809,13 +4810,13 @@
         <v>44136</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K71" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4823,17 +4824,17 @@
         <v>6126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="F72" s="6">
         <v>44927</v>
@@ -4845,13 +4846,13 @@
         <v>44141</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J72" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K72" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4859,17 +4860,17 @@
         <v>6128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>68</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="F73" s="6">
         <v>46753</v>
@@ -4881,13 +4882,13 @@
         <v>44144</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J73" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K73" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4895,14 +4896,14 @@
         <v>6130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="10"/>
@@ -4911,13 +4912,13 @@
         <v>44151</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K74" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4925,17 +4926,17 @@
         <v>6132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>70</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="F75" s="6">
         <v>44927</v>
@@ -4947,13 +4948,13 @@
         <v>44165</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J75" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K75" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4961,17 +4962,17 @@
         <v>6133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="F76" s="6">
         <v>45658</v>
@@ -4983,13 +4984,13 @@
         <v>44165</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J76" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K76" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4997,17 +4998,17 @@
         <v>6135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>69</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="F77" s="6">
         <v>45658</v>
@@ -5019,13 +5020,13 @@
         <v>44182</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J77" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K77" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5033,17 +5034,17 @@
         <v>6138</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C78" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -5051,13 +5052,13 @@
         <v>44228</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J78" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K78" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5065,17 +5066,17 @@
         <v>6139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="F79" s="6">
         <v>45658</v>
@@ -5087,13 +5088,13 @@
         <v>44228</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J79" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K79" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5101,17 +5102,17 @@
         <v>6140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="F80" s="6">
         <v>45292</v>
@@ -5123,13 +5124,13 @@
         <v>44228</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J80" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K80" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5137,14 +5138,14 @@
         <v>6142</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C81" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="10"/>
@@ -5153,13 +5154,13 @@
         <v>44244</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J81" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K81" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5167,14 +5168,14 @@
         <v>6143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C82" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="10"/>
@@ -5183,13 +5184,13 @@
         <v>44249</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5197,14 +5198,14 @@
         <v>6144</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C83" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="10"/>
@@ -5213,13 +5214,13 @@
         <v>44249</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J83" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K83" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5227,14 +5228,14 @@
         <v>6145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C84" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="10"/>
@@ -5243,13 +5244,13 @@
         <v>44249</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J84" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K84" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5257,17 +5258,17 @@
         <v>6146</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C85" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="F85" s="6">
         <v>47119</v>
@@ -5279,13 +5280,13 @@
         <v>44257</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J85" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K85" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5293,17 +5294,17 @@
         <v>6147</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C86" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
       <c r="D86" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="F86" s="6">
         <v>44562</v>
@@ -5315,13 +5316,13 @@
         <v>44257</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J86" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K86" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5329,17 +5330,17 @@
         <v>6149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C87" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="F87" s="6">
         <v>46388</v>
@@ -5351,13 +5352,13 @@
         <v>44260</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J87" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K87" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5365,17 +5366,17 @@
         <v>6150</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C88" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>56</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="F88" s="6">
         <v>45292</v>
@@ -5387,13 +5388,13 @@
         <v>44263</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J88" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K88" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5401,17 +5402,17 @@
         <v>6152</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C89" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="F89" s="6">
         <v>44562</v>
@@ -5423,13 +5424,13 @@
         <v>44272</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J89" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K89" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5437,17 +5438,17 @@
         <v>6153</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C90" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="F90" s="6">
         <v>44562</v>
@@ -5459,13 +5460,13 @@
         <v>44287</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J90" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K90" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5473,17 +5474,17 @@
         <v>6155</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C91" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>59</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="F91" s="6">
         <v>46023</v>
@@ -5495,13 +5496,13 @@
         <v>44301</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J91" s="7">
         <v>1077028058</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5509,14 +5510,14 @@
         <v>6156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C92" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="10"/>
@@ -5525,13 +5526,13 @@
         <v>44301</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J92" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K92" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5539,17 +5540,17 @@
         <v>6157</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C93" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="F93" s="6">
         <v>46753</v>
@@ -5561,13 +5562,13 @@
         <v>44302</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J93" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K93" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5575,17 +5576,17 @@
         <v>6158</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C94" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="F94" s="6">
         <v>44562</v>
@@ -5597,13 +5598,13 @@
         <v>44305</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J94" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K94" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5611,17 +5612,17 @@
         <v>6160</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C95" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F95" s="6">
         <v>45292</v>
@@ -5633,13 +5634,13 @@
         <v>44315</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J95" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K95" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5647,14 +5648,14 @@
         <v>6161</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C96" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="10"/>
@@ -5663,13 +5664,13 @@
         <v>44316</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J96" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K96" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5677,17 +5678,17 @@
         <v>6163</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C97" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F97" s="6">
         <v>45658</v>
@@ -5699,13 +5700,13 @@
         <v>44319</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J97" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K97" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5713,17 +5714,17 @@
         <v>6164</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C98" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -5731,13 +5732,13 @@
         <v>44319</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J98" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K98" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5745,17 +5746,17 @@
         <v>6165</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C99" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="F99" s="6">
         <v>47849</v>
@@ -5767,13 +5768,13 @@
         <v>44326</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J99" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K99" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5781,17 +5782,17 @@
         <v>6166</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C100" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="F100" s="6">
         <v>46023</v>
@@ -5803,13 +5804,13 @@
         <v>44333</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J100" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K100" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5817,14 +5818,14 @@
         <v>6167</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C101" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>59</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="10"/>
@@ -5833,13 +5834,13 @@
         <v>44340</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J101" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K101" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5847,14 +5848,14 @@
         <v>6168</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C102" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="10"/>
@@ -5863,13 +5864,13 @@
         <v>44340</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J102" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K102" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5877,17 +5878,17 @@
         <v>6169</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C103" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>56</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="F103" s="6">
         <v>46023</v>
@@ -5899,13 +5900,13 @@
         <v>44348</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J103" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K103" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5913,17 +5914,17 @@
         <v>6170</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C104" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="F104" s="6">
         <v>44927</v>
@@ -5935,13 +5936,13 @@
         <v>44348</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J104" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K104" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5949,17 +5950,17 @@
         <v>6171</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C105" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="F105" s="6">
         <v>45292</v>
@@ -5971,13 +5972,13 @@
         <v>44354</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J105" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K105" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5985,17 +5986,17 @@
         <v>6172</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C106" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F106" s="6">
         <v>46388</v>
@@ -6007,13 +6008,13 @@
         <v>44357</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J106" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K106" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="K106" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6021,17 +6022,17 @@
         <v>6173</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C107" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="F107" s="6">
         <v>45292</v>
@@ -6043,13 +6044,13 @@
         <v>44363</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J107" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K107" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6057,14 +6058,14 @@
         <v>6174</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C108" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="10"/>
@@ -6073,13 +6074,13 @@
         <v>44368</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J108" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K108" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6087,14 +6088,14 @@
         <v>6175</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C109" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="10"/>
@@ -6103,13 +6104,13 @@
         <v>44368</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J109" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K109" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="K109" s="5" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6117,14 +6118,14 @@
         <v>6176</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C110" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>68</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="10"/>
@@ -6133,13 +6134,13 @@
         <v>44372</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J110" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K110" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="K110" s="5" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6147,17 +6148,17 @@
         <v>6177</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C111" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F111" s="6">
         <v>45292</v>
@@ -6169,13 +6170,13 @@
         <v>44378</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J111" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K111" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6183,17 +6184,17 @@
         <v>6178</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C112" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="F112" s="6">
         <v>45292</v>
@@ -6205,13 +6206,13 @@
         <v>44378</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J112" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K112" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="K112" s="5" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6219,14 +6220,14 @@
         <v>6179</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C113" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="10"/>
@@ -6235,13 +6236,13 @@
         <v>44378</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J113" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K113" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="K113" s="5" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6249,14 +6250,14 @@
         <v>6180</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C114" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>68</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="10"/>
@@ -6265,13 +6266,13 @@
         <v>44396</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J114" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K114" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6279,14 +6280,14 @@
         <v>6181</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C115" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>68</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10"/>
@@ -6295,13 +6296,13 @@
         <v>44406</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J115" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K115" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="K115" s="5" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6309,17 +6310,17 @@
         <v>6182</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="F116" s="6">
         <v>45658</v>
@@ -6331,13 +6332,13 @@
         <v>44410</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J116" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K116" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="K116" s="5" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6345,14 +6346,14 @@
         <v>6183</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C117" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>59</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="10"/>
@@ -6361,13 +6362,13 @@
         <v>44433</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J117" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K117" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="K117" s="5" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6375,14 +6376,14 @@
         <v>6184</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C118" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="10"/>
@@ -6391,13 +6392,13 @@
         <v>44440</v>
       </c>
       <c r="I118" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K118" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6405,14 +6406,14 @@
         <v>6185</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C119" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="10"/>
@@ -6421,13 +6422,13 @@
         <v>44440</v>
       </c>
       <c r="I119" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K119" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6435,17 +6436,17 @@
         <v>6188</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C120" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="F120" s="6">
         <v>44927</v>
@@ -6457,13 +6458,13 @@
         <v>44487</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J120" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K120" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6471,17 +6472,17 @@
         <v>6210</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C121" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
       <c r="D121" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="F121" s="6">
         <v>44927</v>
@@ -6493,13 +6494,13 @@
         <v>44679</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J121" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K121" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6507,17 +6508,17 @@
         <v>6236</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C122" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F122" s="6">
         <v>45292</v>
@@ -6529,13 +6530,13 @@
         <v>44835</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6543,17 +6544,17 @@
         <v>6260</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C123" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F123" s="6">
         <v>46753</v>
@@ -6565,13 +6566,13 @@
         <v>45055</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6579,17 +6580,17 @@
         <v>6269</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="F124" s="6">
         <v>45658</v>
@@ -6601,13 +6602,13 @@
         <v>45291</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6615,17 +6616,17 @@
         <v>6283</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C125" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="F125" s="6">
         <v>46388</v>
@@ -6637,13 +6638,13 @@
         <v>45299</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J125" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K125" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="K125" s="5" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6651,17 +6652,17 @@
         <v>6510</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C126" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F126" s="6">
         <v>45658</v>
@@ -6673,13 +6674,13 @@
         <v>44305</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J126" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K126" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="K126" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6687,17 +6688,17 @@
         <v>6702</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C127" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>68</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
@@ -6705,13 +6706,13 @@
         <v>42674</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
